--- a/database/sidis/expdata/3051.xlsx
+++ b/database/sidis/expdata/3051.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Downloads/files_HEPdata 2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Liu/Repos/fitpack/database/sidis/expdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{99789801-5410-BA48-B8D5-F54B3E515137}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{846F867C-E384-CC4B-8791-0C3B7D3E7B80}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="460" windowWidth="28100" windowHeight="16340"/>
+    <workbookView xWindow="340" yWindow="460" windowWidth="28100" windowHeight="16340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zgt02_p_z_Col" sheetId="1" r:id="rId1"/>
@@ -62,10 +62,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>systabs</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>target</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -105,11 +101,15 @@
     <t>compass</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
+  <si>
+    <t>systabs_u</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19">
     <font>
       <sz val="12"/>
@@ -1054,11 +1054,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1089,7 +1089,7 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J1" t="s">
         <v>7</v>
@@ -1101,19 +1101,19 @@
         <v>9</v>
       </c>
       <c r="M1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>12</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>13</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1142,7 +1142,7 @@
         <v>1.95</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J2">
         <v>-2E-3</v>
@@ -1157,13 +1157,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" t="s">
         <v>18</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>19</v>
-      </c>
-      <c r="P2" t="s">
-        <v>20</v>
       </c>
       <c r="Q2" t="s">
         <v>3</v>
@@ -1195,7 +1195,7 @@
         <v>1.95</v>
       </c>
       <c r="I3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J3">
         <v>-5.0000000000000001E-3</v>
@@ -1210,13 +1210,13 @@
         <v>3.3166247903553998E-3</v>
       </c>
       <c r="N3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O3" t="s">
         <v>18</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>19</v>
-      </c>
-      <c r="P3" t="s">
-        <v>20</v>
       </c>
       <c r="Q3" t="s">
         <v>3</v>
@@ -1248,7 +1248,7 @@
         <v>1.96</v>
       </c>
       <c r="I4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J4">
         <v>-6.0000000000000001E-3</v>
@@ -1263,13 +1263,13 @@
         <v>0</v>
       </c>
       <c r="N4" t="s">
+        <v>17</v>
+      </c>
+      <c r="O4" t="s">
         <v>18</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>19</v>
-      </c>
-      <c r="P4" t="s">
-        <v>20</v>
       </c>
       <c r="Q4" t="s">
         <v>3</v>
@@ -1301,7 +1301,7 @@
         <v>1.95</v>
       </c>
       <c r="I5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J5">
         <v>5.0000000000000001E-3</v>
@@ -1316,13 +1316,13 @@
         <v>3.3166247903553998E-3</v>
       </c>
       <c r="N5" t="s">
+        <v>17</v>
+      </c>
+      <c r="O5" t="s">
         <v>18</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>19</v>
-      </c>
-      <c r="P5" t="s">
-        <v>20</v>
       </c>
       <c r="Q5" t="s">
         <v>3</v>
@@ -1354,7 +1354,7 @@
         <v>1.9</v>
       </c>
       <c r="I6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J6">
         <v>-1.6E-2</v>
@@ -1369,13 +1369,13 @@
         <v>3.872983346207416E-3</v>
       </c>
       <c r="N6" t="s">
+        <v>17</v>
+      </c>
+      <c r="O6" t="s">
         <v>18</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>19</v>
-      </c>
-      <c r="P6" t="s">
-        <v>20</v>
       </c>
       <c r="Q6" t="s">
         <v>3</v>
@@ -1407,7 +1407,7 @@
         <v>4.97</v>
       </c>
       <c r="I7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J7">
         <v>-0.02</v>
@@ -1422,13 +1422,13 @@
         <v>4.7958315233127217E-3</v>
       </c>
       <c r="N7" t="s">
+        <v>17</v>
+      </c>
+      <c r="O7" t="s">
         <v>18</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>19</v>
-      </c>
-      <c r="P7" t="s">
-        <v>20</v>
       </c>
       <c r="Q7" t="s">
         <v>3</v>
@@ -1460,7 +1460,7 @@
         <v>4.97</v>
       </c>
       <c r="I8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J8">
         <v>-3.5999999999999997E-2</v>
@@ -1475,13 +1475,13 @@
         <v>5.1961524227066352E-3</v>
       </c>
       <c r="N8" t="s">
+        <v>17</v>
+      </c>
+      <c r="O8" t="s">
         <v>18</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>19</v>
-      </c>
-      <c r="P8" t="s">
-        <v>20</v>
       </c>
       <c r="Q8" t="s">
         <v>3</v>
@@ -1513,7 +1513,7 @@
         <v>4.97</v>
       </c>
       <c r="I9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J9">
         <v>-3.3000000000000002E-2</v>
@@ -1528,13 +1528,13 @@
         <v>6.9282032302755096E-3</v>
       </c>
       <c r="N9" t="s">
+        <v>17</v>
+      </c>
+      <c r="O9" t="s">
         <v>18</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>19</v>
-      </c>
-      <c r="P9" t="s">
-        <v>20</v>
       </c>
       <c r="Q9" t="s">
         <v>3</v>
@@ -1566,7 +1566,7 @@
         <v>4.97</v>
       </c>
       <c r="I10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J10">
         <v>-3.6999999999999998E-2</v>
@@ -1581,13 +1581,13 @@
         <v>4.9999999999999984E-3</v>
       </c>
       <c r="N10" t="s">
+        <v>17</v>
+      </c>
+      <c r="O10" t="s">
         <v>18</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>19</v>
-      </c>
-      <c r="P10" t="s">
-        <v>20</v>
       </c>
       <c r="Q10" t="s">
         <v>3</v>
@@ -1619,7 +1619,7 @@
         <v>4.97</v>
       </c>
       <c r="I11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J11">
         <v>-3.9E-2</v>
@@ -1634,13 +1634,13 @@
         <v>8.7177978870813504E-3</v>
       </c>
       <c r="N11" t="s">
+        <v>17</v>
+      </c>
+      <c r="O11" t="s">
         <v>18</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>19</v>
-      </c>
-      <c r="P11" t="s">
-        <v>20</v>
       </c>
       <c r="Q11" t="s">
         <v>3</v>
@@ -1672,7 +1672,7 @@
         <v>9.3800000000000008</v>
       </c>
       <c r="I12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J12">
         <v>-2.5000000000000001E-2</v>
@@ -1687,13 +1687,13 @@
         <v>4.7958315233127217E-3</v>
       </c>
       <c r="N12" t="s">
+        <v>17</v>
+      </c>
+      <c r="O12" t="s">
         <v>18</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>19</v>
-      </c>
-      <c r="P12" t="s">
-        <v>20</v>
       </c>
       <c r="Q12" t="s">
         <v>3</v>
@@ -1725,7 +1725,7 @@
         <v>9.39</v>
       </c>
       <c r="I13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J13">
         <v>-3.9E-2</v>
@@ -1740,13 +1740,13 @@
         <v>7.2111025509279799E-3</v>
       </c>
       <c r="N13" t="s">
+        <v>17</v>
+      </c>
+      <c r="O13" t="s">
         <v>18</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>19</v>
-      </c>
-      <c r="P13" t="s">
-        <v>20</v>
       </c>
       <c r="Q13" t="s">
         <v>3</v>
@@ -1778,7 +1778,7 @@
         <v>9.39</v>
       </c>
       <c r="I14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J14">
         <v>-1.4E-2</v>
@@ -1793,13 +1793,13 @@
         <v>4.7958315233127217E-3</v>
       </c>
       <c r="N14" t="s">
+        <v>17</v>
+      </c>
+      <c r="O14" t="s">
         <v>18</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>19</v>
-      </c>
-      <c r="P14" t="s">
-        <v>20</v>
       </c>
       <c r="Q14" t="s">
         <v>3</v>
@@ -1831,7 +1831,7 @@
         <v>9.41</v>
       </c>
       <c r="I15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J15">
         <v>-2.5000000000000001E-2</v>
@@ -1846,13 +1846,13 @@
         <v>6.9282032302755096E-3</v>
       </c>
       <c r="N15" t="s">
+        <v>17</v>
+      </c>
+      <c r="O15" t="s">
         <v>18</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>19</v>
-      </c>
-      <c r="P15" t="s">
-        <v>20</v>
       </c>
       <c r="Q15" t="s">
         <v>3</v>
@@ -1884,7 +1884,7 @@
         <v>9.3800000000000008</v>
       </c>
       <c r="I16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J16">
         <v>-0.10299999999999999</v>
@@ -1899,13 +1899,13 @@
         <v>8.485281374238568E-3</v>
       </c>
       <c r="N16" t="s">
+        <v>17</v>
+      </c>
+      <c r="O16" t="s">
         <v>18</v>
       </c>
-      <c r="O16" t="s">
+      <c r="P16" t="s">
         <v>19</v>
-      </c>
-      <c r="P16" t="s">
-        <v>20</v>
       </c>
       <c r="Q16" t="s">
         <v>3</v>
@@ -1937,7 +1937,7 @@
         <v>26.19</v>
       </c>
       <c r="I17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J17">
         <v>-0.04</v>
@@ -1952,13 +1952,13 @@
         <v>1.1618950038622249E-2</v>
       </c>
       <c r="N17" t="s">
+        <v>17</v>
+      </c>
+      <c r="O17" t="s">
         <v>18</v>
       </c>
-      <c r="O17" t="s">
+      <c r="P17" t="s">
         <v>19</v>
-      </c>
-      <c r="P17" t="s">
-        <v>20</v>
       </c>
       <c r="Q17" t="s">
         <v>3</v>
@@ -1990,7 +1990,7 @@
         <v>26.27</v>
       </c>
       <c r="I18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J18">
         <v>-0.05</v>
@@ -2005,13 +2005,13 @@
         <v>1.2609520212918489E-2</v>
       </c>
       <c r="N18" t="s">
+        <v>17</v>
+      </c>
+      <c r="O18" t="s">
         <v>18</v>
       </c>
-      <c r="O18" t="s">
+      <c r="P18" t="s">
         <v>19</v>
-      </c>
-      <c r="P18" t="s">
-        <v>20</v>
       </c>
       <c r="Q18" t="s">
         <v>3</v>
@@ -2043,7 +2043,7 @@
         <v>26.22</v>
       </c>
       <c r="I19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J19">
         <v>-5.6000000000000001E-2</v>
@@ -2058,13 +2058,13 @@
         <v>9.5916630466254434E-3</v>
       </c>
       <c r="N19" t="s">
+        <v>17</v>
+      </c>
+      <c r="O19" t="s">
         <v>18</v>
       </c>
-      <c r="O19" t="s">
+      <c r="P19" t="s">
         <v>19</v>
-      </c>
-      <c r="P19" t="s">
-        <v>20</v>
       </c>
       <c r="Q19" t="s">
         <v>3</v>
@@ -2096,7 +2096,7 @@
         <v>26.25</v>
       </c>
       <c r="I20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J20">
         <v>-2.4E-2</v>
@@ -2111,13 +2111,13 @@
         <v>1.1874342087037925E-2</v>
       </c>
       <c r="N20" t="s">
+        <v>17</v>
+      </c>
+      <c r="O20" t="s">
         <v>18</v>
       </c>
-      <c r="O20" t="s">
+      <c r="P20" t="s">
         <v>19</v>
-      </c>
-      <c r="P20" t="s">
-        <v>20</v>
       </c>
       <c r="Q20" t="s">
         <v>3</v>
@@ -2149,7 +2149,7 @@
         <v>26.29</v>
       </c>
       <c r="I21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J21">
         <v>-7.1999999999999995E-2</v>
@@ -2164,13 +2164,13 @@
         <v>1.6733200530681499E-2</v>
       </c>
       <c r="N21" t="s">
+        <v>17</v>
+      </c>
+      <c r="O21" t="s">
         <v>18</v>
       </c>
-      <c r="O21" t="s">
+      <c r="P21" t="s">
         <v>19</v>
-      </c>
-      <c r="P21" t="s">
-        <v>20</v>
       </c>
       <c r="Q21" t="s">
         <v>3</v>
